--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1973137.333335884</v>
+        <v>-1975411.353463321</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.015117382</v>
+        <v>7230781.015117385</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>17.59252132044311</v>
       </c>
       <c r="F2" t="n">
-        <v>281.1870117728217</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.04590347118615</v>
+        <v>89.72647573547658</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794434</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.3799638097597</v>
       </c>
       <c r="T2" t="n">
         <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>164.2164185498222</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694834</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653471</v>
+        <v>58.40598506653468</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>156.1517622968603</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841866</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
-        <v>60.97175392824016</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>26.9205262224048</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>131.4120498490059</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1858295557996</v>
       </c>
       <c r="C5" t="n">
-        <v>339.918342683428</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.9178062549605</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>65.51651982872606</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.8633434637439</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>87.85030042930265</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2130834725792238</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492495</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>98.83451610078326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.896753470964711</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,10 +1822,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>14.20188851094976</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>63.69285977458647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>193.7227085619089</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>115.0369420569714</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453333</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>32.26456300666321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997169</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.2206187109567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>121.4542291304343</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.71044127612613</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448889</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988218</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3983,10 +3983,10 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231196</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1100.858257652942</v>
+        <v>890.4691658368251</v>
       </c>
       <c r="C2" t="n">
-        <v>731.8957407125301</v>
+        <v>521.5066488964135</v>
       </c>
       <c r="D2" t="n">
-        <v>731.8957407125301</v>
+        <v>163.240950289663</v>
       </c>
       <c r="E2" t="n">
-        <v>346.1074881142859</v>
+        <v>145.4707267336598</v>
       </c>
       <c r="F2" t="n">
-        <v>62.08020349527408</v>
+        <v>138.5252259844564</v>
       </c>
       <c r="G2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034134</v>
+        <v>141.6681220034135</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971214</v>
+        <v>402.9583913971216</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883421</v>
+        <v>779.3887029883426</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462593</v>
+        <v>1214.846500462594</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811276</v>
+        <v>1642.718462811277</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006096</v>
+        <v>2001.558186006097</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.14520479493</v>
+        <v>2270.145204794931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562383</v>
+        <v>2394.621110562384</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562383</v>
+        <v>2322.985235382643</v>
       </c>
       <c r="S2" t="n">
-        <v>2394.621110562383</v>
+        <v>2140.783251736421</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.829132242438</v>
+        <v>1920.991273416476</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.829132242438</v>
+        <v>1667.208337876759</v>
       </c>
       <c r="V2" t="n">
-        <v>1843.766244898868</v>
+        <v>1667.208337876759</v>
       </c>
       <c r="W2" t="n">
-        <v>1490.997589628754</v>
+        <v>1667.208337876759</v>
       </c>
       <c r="X2" t="n">
-        <v>1490.997589628754</v>
+        <v>1667.208337876759</v>
       </c>
       <c r="Y2" t="n">
-        <v>1100.858257652942</v>
+        <v>1277.069005900947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.1958403238959</v>
+        <v>677.0518741321965</v>
       </c>
       <c r="C3" t="n">
-        <v>676.3206700715502</v>
+        <v>502.5988448510695</v>
       </c>
       <c r="D3" t="n">
-        <v>527.386260410299</v>
+        <v>353.6644351898182</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1488054048434</v>
+        <v>194.4269801843627</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6142474317284</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647308</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="J3" t="n">
-        <v>110.051206896601</v>
+        <v>110.0512068966011</v>
       </c>
       <c r="K3" t="n">
-        <v>342.9113135442392</v>
+        <v>342.9113135442394</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408251</v>
+        <v>516.636822839455</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.443725563169</v>
+        <v>1005.655688461799</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.112478824944</v>
+        <v>1523.324441723574</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907025</v>
+        <v>1930.474537907027</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403385</v>
+        <v>2240.245317403387</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562383</v>
+        <v>2394.621110562384</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050732</v>
+        <v>2335.625166050733</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397253</v>
+        <v>2177.896113225622</v>
       </c>
       <c r="T3" t="n">
-        <v>1975.376034486429</v>
+        <v>1978.447405314798</v>
       </c>
       <c r="U3" t="n">
-        <v>1747.197104254327</v>
+        <v>1750.268475082695</v>
       </c>
       <c r="V3" t="n">
-        <v>1512.044996022584</v>
+        <v>1515.116366850953</v>
       </c>
       <c r="W3" t="n">
-        <v>1257.807639294383</v>
+        <v>1260.879010122751</v>
       </c>
       <c r="X3" t="n">
-        <v>1049.95613908885</v>
+        <v>1053.027509917218</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.1958403238959</v>
+        <v>845.2672111522645</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="D4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="E4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="F4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000089</v>
+        <v>90.69073642000097</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663081</v>
+        <v>200.9842782663083</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420743</v>
+        <v>327.6624769420746</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148799</v>
+        <v>456.7631676148802</v>
       </c>
       <c r="O4" t="n">
-        <v>559.992255489015</v>
+        <v>559.9922554890154</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124554</v>
+        <v>624.8018913124558</v>
       </c>
       <c r="Q4" t="n">
-        <v>585.4546332130426</v>
+        <v>624.8018913124558</v>
       </c>
       <c r="R4" t="n">
-        <v>585.4546332130426</v>
+        <v>624.8018913124558</v>
       </c>
       <c r="S4" t="n">
-        <v>585.4546332130426</v>
+        <v>408.4467587860341</v>
       </c>
       <c r="T4" t="n">
-        <v>585.4546332130426</v>
+        <v>180.6318665031728</v>
       </c>
       <c r="U4" t="n">
-        <v>523.867002982497</v>
+        <v>180.6318665031728</v>
       </c>
       <c r="V4" t="n">
-        <v>496.6745522527951</v>
+        <v>180.6318665031728</v>
       </c>
       <c r="W4" t="n">
-        <v>496.6745522527951</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="X4" t="n">
-        <v>268.6850013547778</v>
+        <v>47.89242221124768</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124768</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.683675137274</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.283515201396</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>262.3791120239298</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>821.0691186598713</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>821.0691186598713</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>1959.837473741231</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>1607.068818471117</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.808290699805</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1207.668958723993</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>338.4002221349974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.4871285526043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.4871285526043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.4871285526043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,49 +5042,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1797.117834600129</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272054</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.9164446247779</v>
+        <v>171.0738540998338</v>
       </c>
       <c r="C13" t="n">
-        <v>490.9164446247779</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5215,34 +5215,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783418</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413812</v>
       </c>
       <c r="X13" t="n">
-        <v>711.709023768308</v>
+        <v>391.8664332433639</v>
       </c>
       <c r="Y13" t="n">
-        <v>490.9164446247779</v>
+        <v>171.0738540998338</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551632</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5282,22 +5282,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4345.626553396685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.0466682503443</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>636.1104853224374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1946.346745426962</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1946.346745426962</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1724.580129996488</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1435.477263122131</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1435.477263122131</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1435.477263122131</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X16" t="n">
-        <v>1207.487712224114</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.695133080584</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1287.040180767972</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2265.590483597801</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656583</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O17" t="n">
         <v>3692.333950986038</v>
@@ -5546,16 +5546,16 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
         <v>2760.816196754298</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.6340846510827</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1802.1767868677</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1802.1767868677</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V19" t="n">
-        <v>1547.492298661813</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W19" t="n">
-        <v>1258.075128624852</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X19" t="n">
-        <v>1258.075128624852</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.282549481322</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,43 +5753,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2949.638265046256</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N20" t="n">
-        <v>3496.417082105038</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>754.0053234933665</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>754.0053234933665</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>603.8886840810308</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>455.9755904986376</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>309.0856430007273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5941,19 +5941,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.643339221624</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>935.6537883236062</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>935.6537883236062</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1296.118160724479</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780954</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.0073655524387</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>573.0711826245318</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>422.9545432121961</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>275.041449629803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>128.1515021318926</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>128.1515021318926</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>128.1515021318926</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.789495593986</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X25" t="n">
-        <v>962.7999446959689</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.0073655524387</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6230,22 +6230,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1729.091615892343</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2707.641918722172</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.420735780954</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>637.8063921226883</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590082</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6473,16 +6473,16 @@
         <v>2183.715908442899</v>
       </c>
       <c r="N29" t="n">
-        <v>2730.494725501681</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5883407921837</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C31" t="n">
-        <v>487.6521578642768</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560685</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.643526557401</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1066.226356520441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>838.2368056224234</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.2368056224234</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>354.7307713949787</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>1009.454103530278</v>
+        <v>913.1101661838546</v>
       </c>
       <c r="L32" t="n">
-        <v>1460.488316778687</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608516</v>
+        <v>1897.676284104188</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
         <v>800.7468040499225</v>
@@ -6883,7 +6883,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,7 +6892,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849073</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6944,43 +6944,43 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2033.429937623799</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7020,7 +7020,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7114,16 +7114,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.992678104634</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1928.524582776558</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973143</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7403,49 +7403,49 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>887.9771891384776</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1339.011402386886</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N41" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3083.181225561918</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7494,7 +7494,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
         <v>698.9037015467788</v>
@@ -7640,10 +7640,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,46 +7652,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1063.760305959328</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.429937623799</v>
+        <v>1597.292210631253</v>
       </c>
       <c r="N44" t="n">
-        <v>2580.208754682581</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490543</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,7 +7825,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
         <v>2271.591606277852</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>168.0241462111659</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>191.0461201844356</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>148.4180109385406</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,25 +8930,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>57.67224444723735</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>60.66917680434173</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>50.84927212317575</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>288.7672650676784</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>192.1853085771351</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>77.3579543087709</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>229.1155640189938</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>192.9047586887102</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>342.3170758598132</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>417.9366924407894</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>316.9032015413812</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>135.6385654278964</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.00061210864527</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>297.8289162490789</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>124.5185911550047</v>
       </c>
       <c r="N35" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>19.40311602546547</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>287.0017854473904</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>62.52018570663836</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.970374914503111</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>209.1187564935606</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>324.3194277357096</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375613</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>225.3165242018475</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>155.1109484875851</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370288</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>126.8751392882539</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.03539919908262</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>272.3211098256413</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.8560895015827</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>92.48912964370399</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>50.98886620205681</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>92.48912964370385</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>64.08785740317488</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>272.3211098256412</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.6113614709806</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>164.7576090751786</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>72.90503174208622</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.92359802148763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1334667.706472359</v>
+        <v>1334667.706472358</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1334667.706472359</v>
+        <v>1334667.706472358</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1334667.706472359</v>
+        <v>1334667.706472358</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1334667.706472359</v>
+        <v>1334667.706472358</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>76788.97449895648</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>79416.35737739659</v>
+        <v>79416.35737739662</v>
       </c>
       <c r="F2" t="n">
         <v>79416.35737739659</v>
       </c>
       <c r="G2" t="n">
+        <v>79416.35737739662</v>
+      </c>
+      <c r="H2" t="n">
+        <v>79416.35737739662</v>
+      </c>
+      <c r="I2" t="n">
         <v>79416.35737739659</v>
       </c>
-      <c r="H2" t="n">
-        <v>79416.35737739659</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>79416.35737739662</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79416.35737739659</v>
       </c>
       <c r="K2" t="n">
         <v>79416.35737739662</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642818</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642828</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642831</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771933</v>
+        <v>501884.6814771936</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904349</v>
+        <v>83720.31263904306</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.561462996</v>
+        <v>156634.5614629961</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848962</v>
+        <v>19465.25531848957</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.6179595053</v>
+        <v>84741.61795950528</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587447</v>
+        <v>194330.6670587445</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499386</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>40547.88465321288</v>
+        <v>40547.88465321285</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777371</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777377</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.7825277737</v>
+        <v>62292.78252777374</v>
       </c>
       <c r="P4" t="n">
         <v>62292.78252777374</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237212</v>
+        <v>76841.33769237215</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696267.7117293536</v>
+        <v>-696400.5917915406</v>
       </c>
       <c r="C6" t="n">
-        <v>-285539.7196437562</v>
+        <v>-285539.7196437558</v>
       </c>
       <c r="D6" t="n">
-        <v>-201819.4070047127</v>
+        <v>-201819.4070047126</v>
       </c>
       <c r="E6" t="n">
-        <v>-769435.2985447176</v>
+        <v>-769502.4940349434</v>
       </c>
       <c r="F6" t="n">
-        <v>-42057.88455131089</v>
+        <v>-42125.08004153668</v>
       </c>
       <c r="G6" t="n">
-        <v>-42057.88455131086</v>
+        <v>-42125.08004153672</v>
       </c>
       <c r="H6" t="n">
-        <v>-42057.88455131084</v>
+        <v>-42125.08004153664</v>
       </c>
       <c r="I6" t="n">
-        <v>-42057.88455131087</v>
+        <v>-42125.08004153668</v>
       </c>
       <c r="J6" t="n">
-        <v>-198692.4460143069</v>
+        <v>-198759.6415045328</v>
       </c>
       <c r="K6" t="n">
-        <v>-61523.13986980048</v>
+        <v>-61590.33536002621</v>
       </c>
       <c r="L6" t="n">
-        <v>-96356.48797576071</v>
+        <v>-96356.48797576083</v>
       </c>
       <c r="M6" t="n">
-        <v>-154308.1651756568</v>
+        <v>-154308.1651756569</v>
       </c>
       <c r="N6" t="n">
-        <v>-69566.54721615156</v>
+        <v>-69566.54721615154</v>
       </c>
       <c r="O6" t="n">
-        <v>-69566.54721615149</v>
+        <v>-69566.54721615158</v>
       </c>
       <c r="P6" t="n">
-        <v>-69566.54721615158</v>
+        <v>-69566.54721615155</v>
       </c>
     </row>
   </sheetData>
@@ -26698,25 +26698,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26725,7 +26725,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322896</v>
+        <v>312.6374684322898</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405961</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322896</v>
+        <v>312.6374684322898</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479714</v>
+        <v>65.10619578479672</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405961</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395965</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405961</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395965</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.049188454059</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405961</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395965</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>364.3378487518187</v>
       </c>
       <c r="F2" t="n">
-        <v>125.6890339688898</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631755</v>
+        <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
         <v>162.0217950910658</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794442</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.492080438493502</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.24376372694833</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.040657120083637</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2147226037219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703072</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.95378551841862</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.9441304121514</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
-        <v>225.2171171014232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>25.54801210768096</v>
       </c>
       <c r="C5" t="n">
-        <v>25.35454908757958</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>88.69766676325186</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>167.819698156939</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>239.9019580408323</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>155.9578053692159</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30460,7 +30460,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
         <v>46.97513661859254</v>
@@ -30520,7 +30520,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
         <v>46.97513661859254</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948902</v>
+        <v>1.256834043948903</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259169</v>
+        <v>12.87155165259171</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934009</v>
+        <v>48.45409447934013</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376082</v>
+        <v>106.6722184376083</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179652</v>
+        <v>159.8740035179654</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904665</v>
+        <v>198.3378383904667</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195428</v>
+        <v>220.689060819543</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469126</v>
+        <v>224.2600405469128</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223957</v>
+        <v>211.7623970223959</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624071</v>
+        <v>180.7343065624073</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634871</v>
+        <v>135.7239373634872</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320527</v>
+        <v>78.94960151320534</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648563</v>
+        <v>28.64010577648565</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386321</v>
+        <v>5.501791027386325</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159121</v>
+        <v>0.1005467235159122</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373775</v>
+        <v>0.6724654981373782</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168884</v>
+        <v>6.49460099516889</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446673</v>
+        <v>23.15286912446675</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358444</v>
+        <v>63.5332425235845</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987887</v>
+        <v>108.5884308987888</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881179</v>
+        <v>146.010545988118</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955978</v>
+        <v>170.3874202955979</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072296</v>
+        <v>174.8970683072298</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853435</v>
+        <v>159.9966485853436</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434436</v>
+        <v>128.4114160434438</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522034</v>
+        <v>85.83963095522041</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610842</v>
+        <v>41.75184908610846</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689382</v>
+        <v>12.49075168689384</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106359</v>
+        <v>2.710507863106361</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324854</v>
+        <v>0.04424115119324858</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.563772484058227</v>
+        <v>0.5637724840582276</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717695</v>
+        <v>5.012449903717699</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695105</v>
+        <v>16.95417615695106</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291664</v>
+        <v>39.85871462291669</v>
       </c>
       <c r="K4" t="n">
-        <v>65.5001122387649</v>
+        <v>65.50011223876497</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625678</v>
+        <v>83.81759276625685</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832733</v>
+        <v>88.37389947832742</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411038</v>
+        <v>86.27256567411045</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943015</v>
+        <v>79.68667801943022</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464227</v>
+        <v>68.18571934464232</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327572</v>
+        <v>47.20825773327577</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501809</v>
+        <v>25.34926096501811</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814735</v>
+        <v>9.825016835814743</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248788</v>
+        <v>2.40884606824879</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317605</v>
+        <v>0.03075122640317608</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34214,10 +34214,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299568</v>
+        <v>94.72292908299578</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441494</v>
+        <v>263.9295650441496</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709297</v>
+        <v>380.2326379709299</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851025</v>
+        <v>439.8563610851027</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623058</v>
+        <v>432.1939013623061</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634543</v>
+        <v>362.4643668634545</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786202</v>
+        <v>271.3000189786204</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489423</v>
+        <v>125.7332381489424</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732658</v>
+        <v>62.78665119732664</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370083</v>
+        <v>235.2122289370084</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117029</v>
+        <v>175.4803124194097</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235794</v>
+        <v>493.9584501235795</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674498</v>
+        <v>522.89773056745</v>
       </c>
       <c r="O3" t="n">
-        <v>208.4465243253346</v>
+        <v>411.2627234176288</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690506</v>
+        <v>312.8997772690507</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050479</v>
+        <v>155.935144605048</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288205</v>
+        <v>43.23062041288212</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265729</v>
+        <v>111.407618026573</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401679</v>
+        <v>127.957776440168</v>
       </c>
       <c r="N4" t="n">
         <v>130.404738053339</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334698</v>
+        <v>104.2718059334699</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953575</v>
+        <v>65.46427860953581</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>485.6092974939411</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35422,16 +35422,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451117</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35650,25 +35650,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>513.2623588395695</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>311.4634816080612</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>506.4393865155079</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>827.6883808979052</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>731.1064244073618</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>585.41095519699</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>684.7056784113259</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>731.825874518937</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36598,25 +36598,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>797.9071902521454</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>970.2385278537009</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>824.9562024296004</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>534.4005516472682</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>261.7876130773578</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>635.0202028044795</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37239,7 +37239,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37312,22 +37312,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>663.4397069852315</v>
       </c>
       <c r="N35" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,25 +37543,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>474.9932304177976</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>729.1561268582145</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37780,25 +37780,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>624.1930720027909</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>461.2821719260102</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37862,10 +37862,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38020,22 +38020,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>464.5604893068353</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>717.1717573817797</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
